--- a/arxiv_paper_df_with_abstract.xlsx
+++ b/arxiv_paper_df_with_abstract.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1BE72-94DD-4604-AD9D-75950F9344EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="628">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -97,9 +103,6 @@
     <t>Hierarchical Attention Networks for Document Classification</t>
   </si>
   <si>
-    <t>Convolutional Neural Networks using Logarithmic Data Representation</t>
-  </si>
-  <si>
     <t>XNOR-Net: ImageNet Classification Using Binary Convolutional Neural Networks</t>
   </si>
   <si>
@@ -724,9 +727,6 @@
     <t>Zichao Yang et al</t>
   </si>
   <si>
-    <t>Daisuke Miyashita et al</t>
-  </si>
-  <si>
     <t>Mohammad Rastegari et al</t>
   </si>
   <si>
@@ -1145,9 +1145,6 @@
   </si>
   <si>
     <t>[Link](https://aclanthology.org/N16-1174/)</t>
-  </si>
-  <si>
-    <t>[Link](http://arxiv.org/abs/1603.01025v2)</t>
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/1603.05279v4)</t>
@@ -1695,24 +1692,6 @@
   </si>
   <si>
     <t>We propose a hierarchical attention network for document classification.</t>
-  </si>
-  <si>
-    <t>Recent advances in convolutional neural networks have considered model
-complexity and hardware efficiency to enable deployment onto embedded systems
-and mobile devices. For example, it is now well-known that the arithmetic
-operations of deep networks can be encoded down to 8-bit fixed-point without
-significant deterioration in performance. However, further reduction in
-precision down to as low as 3-bit fixed-point results in significant losses in
-performance. In this paper we propose a new data representation that enables
-state-of-the-art networks to be encoded to 3 bits with negligible loss in
-classification performance. To perform this, we take advantage of the fact that
-the weights and activations in a trained network naturally have non-uniform
-distributions. Using non-uniform, base-2 logarithmic representation to encode
-weights, communicate activations, and perform dot-products enables networks to
-1) achieve higher classification accuracies than fixed-point at the same
-resolution and 2) eliminate bulky digital multipliers. Finally, we propose an
-end-to-end training procedure that uses log representation at 5-bits, which
-achieves higher final test accuracy than linear at 5-bits.</t>
   </si>
   <si>
     <t>We propose two efficient approximations to standard convolutional neural
@@ -3592,15 +3571,18 @@
 at quantization levels down to 4-bits. We observe large improvements over
 training-free methods, especially in the low-bit settings.</t>
   </si>
+  <si>
+    <t>[Link](https://www.cs.toronto.edu/~rsalakhu/papers/srivastava14a.pdf)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3664,13 +3646,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3708,7 +3698,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3742,6 +3732,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3776,9 +3767,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3951,14 +3943,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +3978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3995,25 +3989,25 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2">
         <v>33298</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4024,25 +4018,25 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2">
         <v>37438</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4053,25 +4047,25 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2">
         <v>38949</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4082,25 +4076,25 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2">
         <v>39177</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4111,25 +4105,25 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2">
         <v>39234</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4143,19 +4137,19 @@
         <v>41290</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4169,19 +4163,19 @@
         <v>41426</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4192,25 +4186,25 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="2">
         <v>41501</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4221,25 +4215,25 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="2">
         <v>41627</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4253,19 +4247,19 @@
         <v>41628</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4276,25 +4270,25 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2">
         <v>41640</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H12" t="s">
-        <v>359</v>
+        <v>627</v>
       </c>
       <c r="I12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4305,25 +4299,25 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2">
         <v>41876</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4334,25 +4328,25 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2">
         <v>41883</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I14" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4363,25 +4357,25 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2">
         <v>41892</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4395,19 +4389,19 @@
         <v>42045</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I16" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4418,25 +4412,25 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2">
         <v>42072</v>
       </c>
       <c r="F17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I17" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4447,25 +4441,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2">
         <v>42247</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I18" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4479,19 +4473,19 @@
         <v>42256</v>
       </c>
       <c r="F19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4505,19 +4499,19 @@
         <v>42370</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4528,22 +4522,22 @@
         <v>27</v>
       </c>
       <c r="E21" s="2">
-        <v>42432</v>
+        <v>42445</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I21" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4553,23 +4547,26 @@
       <c r="C22" t="s">
         <v>28</v>
       </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
       <c r="E22" s="2">
-        <v>42445</v>
+        <v>42458</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>348</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I22" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4583,22 +4580,22 @@
         <v>158</v>
       </c>
       <c r="E23" s="2">
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>351</v>
       </c>
       <c r="H23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I23" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4608,26 +4605,23 @@
       <c r="C24" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
       <c r="E24" s="2">
-        <v>42461</v>
+        <v>42533</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I24" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4637,23 +4631,26 @@
       <c r="C25" t="s">
         <v>31</v>
       </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
       <c r="E25" s="2">
-        <v>42533</v>
+        <v>42541</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4663,26 +4660,23 @@
       <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
       <c r="E26" s="2">
-        <v>42541</v>
+        <v>42552</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4693,22 +4687,22 @@
         <v>33</v>
       </c>
       <c r="E27" s="2">
-        <v>42552</v>
+        <v>42635</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I27" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4719,22 +4713,22 @@
         <v>34</v>
       </c>
       <c r="E28" s="2">
-        <v>42635</v>
+        <v>42639</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I28" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4745,22 +4739,22 @@
         <v>35</v>
       </c>
       <c r="E29" s="2">
-        <v>42639</v>
+        <v>42706</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I29" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4770,23 +4764,26 @@
       <c r="C30" t="s">
         <v>36</v>
       </c>
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
       <c r="E30" s="2">
-        <v>42706</v>
+        <v>42803</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I30" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4800,22 +4797,22 @@
         <v>161</v>
       </c>
       <c r="E31" s="2">
-        <v>42803</v>
+        <v>42854</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I31" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4825,26 +4822,23 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
       <c r="E32" s="2">
-        <v>42854</v>
+        <v>42881</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I32" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4854,23 +4848,26 @@
       <c r="C33" t="s">
         <v>39</v>
       </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
       <c r="E33" s="2">
-        <v>42881</v>
+        <v>42894</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I33" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4880,26 +4877,23 @@
       <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
-        <v>163</v>
-      </c>
       <c r="E34" s="2">
-        <v>42894</v>
+        <v>42898</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I34" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4910,22 +4904,22 @@
         <v>41</v>
       </c>
       <c r="E35" s="2">
-        <v>42898</v>
+        <v>42936</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I35" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4935,23 +4929,26 @@
       <c r="C36" t="s">
         <v>42</v>
       </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
       <c r="E36" s="2">
-        <v>42936</v>
+        <v>42938</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I36" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4961,26 +4958,23 @@
       <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
       <c r="E37" s="2">
-        <v>42938</v>
+        <v>42939</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G37" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I37" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4991,22 +4985,22 @@
         <v>44</v>
       </c>
       <c r="E38" s="2">
-        <v>42939</v>
+        <v>42984</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I38" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5016,23 +5010,26 @@
       <c r="C39" t="s">
         <v>45</v>
       </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
       <c r="E39" s="2">
-        <v>42984</v>
+        <v>43014</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I39" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5046,22 +5043,22 @@
         <v>165</v>
       </c>
       <c r="E40" s="2">
-        <v>43014</v>
+        <v>43040</v>
       </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G40" t="s">
         <v>349</v>
       </c>
       <c r="H40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I40" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5075,22 +5072,22 @@
         <v>166</v>
       </c>
       <c r="E41" s="2">
-        <v>43040</v>
+        <v>43055</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I41" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5104,22 +5101,22 @@
         <v>167</v>
       </c>
       <c r="E42" s="2">
-        <v>43055</v>
+        <v>43070</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I42" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5129,26 +5126,23 @@
       <c r="C43" t="s">
         <v>49</v>
       </c>
-      <c r="D43" t="s">
-        <v>168</v>
-      </c>
       <c r="E43" s="2">
-        <v>43070</v>
+        <v>43084</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G43" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I43" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5159,22 +5153,22 @@
         <v>50</v>
       </c>
       <c r="E44" s="2">
-        <v>43084</v>
+        <v>43146</v>
       </c>
       <c r="F44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I44" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5184,23 +5178,26 @@
       <c r="C45" t="s">
         <v>51</v>
       </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
       <c r="E45" s="2">
-        <v>43146</v>
+        <v>43157</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G45" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H45" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I45" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5210,26 +5207,23 @@
       <c r="C46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
-        <v>169</v>
-      </c>
       <c r="E46" s="2">
-        <v>43157</v>
+        <v>43176</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H46" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I46" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5239,23 +5233,26 @@
       <c r="C47" t="s">
         <v>53</v>
       </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
       <c r="E47" s="2">
-        <v>43176</v>
+        <v>43185</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G47" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I47" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5265,26 +5262,23 @@
       <c r="C48" t="s">
         <v>54</v>
       </c>
-      <c r="D48" t="s">
-        <v>170</v>
-      </c>
       <c r="E48" s="2">
-        <v>43185</v>
+        <v>43191</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I48" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5295,22 +5289,22 @@
         <v>55</v>
       </c>
       <c r="E49" s="2">
-        <v>43191</v>
+        <v>43210</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G49" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I49" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5321,22 +5315,22 @@
         <v>56</v>
       </c>
       <c r="E50" s="2">
-        <v>43210</v>
+        <v>43252</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G50" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H50" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I50" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5346,23 +5340,26 @@
       <c r="C51" t="s">
         <v>57</v>
       </c>
+      <c r="D51" t="s">
+        <v>170</v>
+      </c>
       <c r="E51" s="2">
-        <v>43252</v>
+        <v>43262</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G51" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I51" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5376,22 +5373,22 @@
         <v>171</v>
       </c>
       <c r="E52" s="2">
-        <v>43262</v>
+        <v>43331</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G52" t="s">
         <v>345</v>
       </c>
       <c r="H52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I52" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5401,26 +5398,23 @@
       <c r="C53" t="s">
         <v>59</v>
       </c>
-      <c r="D53" t="s">
-        <v>172</v>
-      </c>
       <c r="E53" s="2">
-        <v>43331</v>
+        <v>43384</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G53" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I53" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5430,23 +5424,26 @@
       <c r="C54" t="s">
         <v>60</v>
       </c>
+      <c r="D54" t="s">
+        <v>172</v>
+      </c>
       <c r="E54" s="2">
-        <v>43384</v>
+        <v>43397</v>
       </c>
       <c r="F54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G54" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I54" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5460,22 +5457,22 @@
         <v>173</v>
       </c>
       <c r="E55" s="2">
-        <v>43397</v>
+        <v>43425</v>
       </c>
       <c r="F55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G55" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I55" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5489,22 +5486,22 @@
         <v>174</v>
       </c>
       <c r="E56" s="2">
-        <v>43425</v>
+        <v>43466</v>
       </c>
       <c r="F56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I56" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5518,22 +5515,22 @@
         <v>175</v>
       </c>
       <c r="E57" s="2">
-        <v>43466</v>
+        <v>43505</v>
       </c>
       <c r="F57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G57" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H57" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I57" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5547,22 +5544,22 @@
         <v>176</v>
       </c>
       <c r="E58" s="2">
-        <v>43505</v>
+        <v>43514</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G58" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H58" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I58" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5573,25 +5570,25 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E59" s="2">
-        <v>43514</v>
+        <v>43517</v>
       </c>
       <c r="F59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I59" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5601,26 +5598,23 @@
       <c r="C60" t="s">
         <v>66</v>
       </c>
-      <c r="D60" t="s">
-        <v>177</v>
-      </c>
       <c r="E60" s="2">
-        <v>43517</v>
+        <v>43539</v>
       </c>
       <c r="F60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G60" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I60" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5630,23 +5624,26 @@
       <c r="C61" t="s">
         <v>67</v>
       </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
       <c r="E61" s="2">
-        <v>43539</v>
+        <v>43566</v>
       </c>
       <c r="F61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G61" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I61" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5656,26 +5653,23 @@
       <c r="C62" t="s">
         <v>68</v>
       </c>
-      <c r="D62" t="s">
-        <v>178</v>
-      </c>
       <c r="E62" s="2">
-        <v>43566</v>
+        <v>43593</v>
       </c>
       <c r="F62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G62" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H62" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I62" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5685,23 +5679,26 @@
       <c r="C63" t="s">
         <v>69</v>
       </c>
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
       <c r="E63" s="2">
-        <v>43593</v>
+        <v>43609</v>
       </c>
       <c r="F63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G63" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I63" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5715,22 +5712,22 @@
         <v>179</v>
       </c>
       <c r="E64" s="2">
-        <v>43609</v>
+        <v>43617</v>
       </c>
       <c r="F64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G64" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="H64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I64" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5744,22 +5741,22 @@
         <v>180</v>
       </c>
       <c r="E65" s="2">
-        <v>43617</v>
+        <v>43628</v>
       </c>
       <c r="F65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G65" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H65" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I65" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5773,22 +5770,22 @@
         <v>181</v>
       </c>
       <c r="E66" s="2">
-        <v>43628</v>
+        <v>43658</v>
       </c>
       <c r="F66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G66" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H66" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I66" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5798,26 +5795,23 @@
       <c r="C67" t="s">
         <v>73</v>
       </c>
-      <c r="D67" t="s">
-        <v>182</v>
-      </c>
       <c r="E67" s="2">
-        <v>43658</v>
+        <v>43670</v>
       </c>
       <c r="F67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G67" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H67" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I67" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5827,23 +5821,26 @@
       <c r="C68" t="s">
         <v>74</v>
       </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
       <c r="E68" s="2">
-        <v>43670</v>
+        <v>43702</v>
       </c>
       <c r="F68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G68" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I68" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5857,22 +5854,22 @@
         <v>183</v>
       </c>
       <c r="E69" s="2">
-        <v>43702</v>
+        <v>43704</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I69" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5882,26 +5879,23 @@
       <c r="C70" t="s">
         <v>76</v>
       </c>
-      <c r="D70" t="s">
-        <v>184</v>
-      </c>
       <c r="E70" s="2">
-        <v>43704</v>
+        <v>43720</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H70" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I70" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5911,23 +5905,26 @@
       <c r="C71" t="s">
         <v>77</v>
       </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
       <c r="E71" s="2">
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="F71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G71" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H71" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I71" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5938,25 +5935,25 @@
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2">
-        <v>43721</v>
+        <v>43740</v>
       </c>
       <c r="F72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G72" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I72" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5970,22 +5967,22 @@
         <v>185</v>
       </c>
       <c r="E73" s="2">
-        <v>43740</v>
+        <v>43761</v>
       </c>
       <c r="F73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G73" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I73" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5995,26 +5992,23 @@
       <c r="C74" t="s">
         <v>80</v>
       </c>
-      <c r="D74" t="s">
-        <v>186</v>
-      </c>
       <c r="E74" s="2">
-        <v>43761</v>
+        <v>43767</v>
       </c>
       <c r="F74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G74" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H74" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I74" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6025,22 +6019,22 @@
         <v>81</v>
       </c>
       <c r="E75" s="2">
-        <v>43767</v>
+        <v>43790</v>
       </c>
       <c r="F75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G75" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H75" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I75" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6051,22 +6045,22 @@
         <v>82</v>
       </c>
       <c r="E76" s="2">
-        <v>43790</v>
+        <v>43797</v>
       </c>
       <c r="F76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G76" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H76" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I76" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6076,23 +6070,26 @@
       <c r="C77" t="s">
         <v>83</v>
       </c>
+      <c r="D77" t="s">
+        <v>186</v>
+      </c>
       <c r="E77" s="2">
-        <v>43797</v>
+        <v>43831</v>
       </c>
       <c r="F77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G77" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H77" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I77" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6102,26 +6099,23 @@
       <c r="C78" t="s">
         <v>84</v>
       </c>
-      <c r="D78" t="s">
-        <v>187</v>
-      </c>
       <c r="E78" s="2">
-        <v>43831</v>
+        <v>43886</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G78" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H78" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I78" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6132,22 +6126,22 @@
         <v>85</v>
       </c>
       <c r="E79" s="2">
-        <v>43886</v>
+        <v>43897</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G79" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H79" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I79" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6158,22 +6152,22 @@
         <v>86</v>
       </c>
       <c r="E80" s="2">
-        <v>43897</v>
+        <v>43921</v>
       </c>
       <c r="F80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G80" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H80" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I80" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6183,23 +6177,26 @@
       <c r="C81" t="s">
         <v>87</v>
       </c>
+      <c r="D81" t="s">
+        <v>187</v>
+      </c>
       <c r="E81" s="2">
-        <v>43921</v>
+        <v>43926</v>
       </c>
       <c r="F81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G81" t="s">
-        <v>348</v>
+        <v>10</v>
       </c>
       <c r="H81" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I81" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6209,26 +6206,23 @@
       <c r="C82" t="s">
         <v>88</v>
       </c>
-      <c r="D82" t="s">
-        <v>188</v>
-      </c>
       <c r="E82" s="2">
-        <v>43926</v>
+        <v>43929</v>
       </c>
       <c r="F82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="H82" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I82" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6238,23 +6232,26 @@
       <c r="C83" t="s">
         <v>89</v>
       </c>
+      <c r="D83" t="s">
+        <v>185</v>
+      </c>
       <c r="E83" s="2">
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="F83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G83" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H83" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I83" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6264,26 +6261,23 @@
       <c r="C84" t="s">
         <v>90</v>
       </c>
-      <c r="D84" t="s">
-        <v>186</v>
-      </c>
       <c r="E84" s="2">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="F84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G84" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="H84" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I84" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6293,23 +6287,26 @@
       <c r="C85" t="s">
         <v>91</v>
       </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
       <c r="E85" s="2">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="F85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H85" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I85" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6320,25 +6317,25 @@
         <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E86" s="2">
-        <v>43941</v>
+        <v>43983</v>
       </c>
       <c r="F86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G86" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I86" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6352,22 +6349,22 @@
         <v>189</v>
       </c>
       <c r="E87" s="2">
-        <v>43983</v>
+        <v>43990</v>
       </c>
       <c r="F87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G87" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I87" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6381,22 +6378,22 @@
         <v>190</v>
       </c>
       <c r="E88" s="2">
-        <v>43990</v>
+        <v>44033</v>
       </c>
       <c r="F88" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="G88" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H88" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I88" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6410,22 +6407,22 @@
         <v>191</v>
       </c>
       <c r="E89" s="2">
-        <v>44033</v>
+        <v>44044</v>
       </c>
       <c r="F89" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H89" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I89" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6435,26 +6432,23 @@
       <c r="C90" t="s">
         <v>96</v>
       </c>
-      <c r="D90" t="s">
-        <v>192</v>
-      </c>
       <c r="E90" s="2">
-        <v>44044</v>
+        <v>44054</v>
       </c>
       <c r="F90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G90" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H90" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I90" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6464,23 +6458,26 @@
       <c r="C91" t="s">
         <v>97</v>
       </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
       <c r="E91" s="2">
-        <v>44054</v>
+        <v>44078</v>
       </c>
       <c r="F91" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G91" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H91" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I91" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6494,22 +6491,22 @@
         <v>193</v>
       </c>
       <c r="E92" s="2">
-        <v>44078</v>
+        <v>44126</v>
       </c>
       <c r="F92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H92" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I92" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6523,22 +6520,22 @@
         <v>194</v>
       </c>
       <c r="E93" s="2">
-        <v>44126</v>
+        <v>44133</v>
       </c>
       <c r="F93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G93" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H93" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I93" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6552,22 +6549,22 @@
         <v>195</v>
       </c>
       <c r="E94" s="2">
-        <v>44133</v>
+        <v>44188</v>
       </c>
       <c r="F94" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G94" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H94" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I94" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6581,22 +6578,22 @@
         <v>196</v>
       </c>
       <c r="E95" s="2">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="F95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G95" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H95" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I95" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6607,25 +6604,25 @@
         <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E96" s="2">
         <v>44196</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G96" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I96" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6636,25 +6633,25 @@
         <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E97" s="2">
-        <v>44196</v>
+        <v>44201</v>
       </c>
       <c r="F97" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G97" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H97" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I97" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6664,26 +6661,23 @@
       <c r="C98" t="s">
         <v>104</v>
       </c>
-      <c r="D98" t="s">
-        <v>198</v>
-      </c>
       <c r="E98" s="2">
-        <v>44201</v>
+        <v>44262</v>
       </c>
       <c r="F98" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G98" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H98" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I98" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6693,23 +6687,26 @@
       <c r="C99" t="s">
         <v>105</v>
       </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
       <c r="E99" s="2">
-        <v>44262</v>
+        <v>44280</v>
       </c>
       <c r="F99" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G99" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="H99" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I99" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6719,26 +6716,23 @@
       <c r="C100" t="s">
         <v>106</v>
       </c>
-      <c r="D100" t="s">
-        <v>199</v>
-      </c>
       <c r="E100" s="2">
-        <v>44280</v>
+        <v>44292</v>
       </c>
       <c r="F100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H100" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I100" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6748,23 +6742,26 @@
       <c r="C101" t="s">
         <v>107</v>
       </c>
+      <c r="D101" t="s">
+        <v>199</v>
+      </c>
       <c r="E101" s="2">
-        <v>44292</v>
+        <v>44304</v>
       </c>
       <c r="F101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G101" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="H101" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I101" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6778,22 +6775,22 @@
         <v>200</v>
       </c>
       <c r="E102" s="2">
-        <v>44304</v>
+        <v>44350</v>
       </c>
       <c r="F102" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G102" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H102" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I102" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6803,26 +6800,23 @@
       <c r="C103" t="s">
         <v>109</v>
       </c>
-      <c r="D103" t="s">
-        <v>201</v>
-      </c>
       <c r="E103" s="2">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="F103" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G103" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I103" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6832,23 +6826,26 @@
       <c r="C104" t="s">
         <v>110</v>
       </c>
+      <c r="D104" t="s">
+        <v>201</v>
+      </c>
       <c r="E104" s="2">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G104" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H104" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I104" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6862,22 +6859,22 @@
         <v>202</v>
       </c>
       <c r="E105" s="2">
-        <v>44362</v>
+        <v>44442</v>
       </c>
       <c r="F105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G105" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H105" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I105" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6887,26 +6884,23 @@
       <c r="C106" t="s">
         <v>112</v>
       </c>
-      <c r="D106" t="s">
-        <v>203</v>
-      </c>
       <c r="E106" s="2">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="F106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H106" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I106" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6916,23 +6910,26 @@
       <c r="C107" t="s">
         <v>113</v>
       </c>
+      <c r="D107" t="s">
+        <v>203</v>
+      </c>
       <c r="E107" s="2">
-        <v>44462</v>
+        <v>44470</v>
       </c>
       <c r="F107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G107" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H107" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I107" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6943,25 +6940,25 @@
         <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E108" s="2">
         <v>44470</v>
       </c>
       <c r="F108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G108" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H108" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I108" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6971,26 +6968,23 @@
       <c r="C109" t="s">
         <v>115</v>
       </c>
-      <c r="D109" t="s">
-        <v>202</v>
-      </c>
       <c r="E109" s="2">
-        <v>44470</v>
+        <v>44481</v>
       </c>
       <c r="F109" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G109" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H109" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I109" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7000,23 +6994,26 @@
       <c r="C110" t="s">
         <v>116</v>
       </c>
+      <c r="D110" t="s">
+        <v>204</v>
+      </c>
       <c r="E110" s="2">
-        <v>44481</v>
+        <v>44562</v>
       </c>
       <c r="F110" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G110" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H110" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I110" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7033,19 +7030,19 @@
         <v>44562</v>
       </c>
       <c r="F111" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G111" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H111" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I111" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7056,25 +7053,25 @@
         <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E112" s="2">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="F112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G112" t="s">
-        <v>349</v>
+        <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I112" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7084,26 +7081,23 @@
       <c r="C113" t="s">
         <v>119</v>
       </c>
-      <c r="D113" t="s">
-        <v>202</v>
-      </c>
       <c r="E113" s="2">
-        <v>44607</v>
+        <v>44632</v>
       </c>
       <c r="F113" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="G113" t="s">
-        <v>10</v>
+        <v>346</v>
       </c>
       <c r="H113" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I113" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7113,23 +7107,26 @@
       <c r="C114" t="s">
         <v>120</v>
       </c>
+      <c r="D114" t="s">
+        <v>206</v>
+      </c>
       <c r="E114" s="2">
-        <v>44632</v>
+        <v>44641</v>
       </c>
       <c r="F114" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="G114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H114" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I114" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7143,22 +7140,22 @@
         <v>207</v>
       </c>
       <c r="E115" s="2">
-        <v>44641</v>
+        <v>44667</v>
       </c>
       <c r="F115" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G115" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H115" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I115" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7172,22 +7169,22 @@
         <v>208</v>
       </c>
       <c r="E116" s="2">
-        <v>44667</v>
+        <v>44706</v>
       </c>
       <c r="F116" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="G116" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H116" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I116" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7201,22 +7198,22 @@
         <v>209</v>
       </c>
       <c r="E117" s="2">
-        <v>44706</v>
+        <v>44713</v>
       </c>
       <c r="F117" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G117" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H117" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I117" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7227,25 +7224,25 @@
         <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E118" s="2">
-        <v>44713</v>
+        <v>44716</v>
       </c>
       <c r="F118" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G118" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H118" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I118" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7256,25 +7253,25 @@
         <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E119" s="2">
-        <v>44716</v>
+        <v>44797</v>
       </c>
       <c r="F119" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G119" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H119" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I119" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7285,25 +7282,25 @@
         <v>126</v>
       </c>
       <c r="D120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E120" s="2">
-        <v>44797</v>
+        <v>44831</v>
       </c>
       <c r="F120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G120" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H120" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I120" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7314,25 +7311,25 @@
         <v>127</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E121" s="2">
-        <v>44831</v>
+        <v>44842</v>
       </c>
       <c r="F121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G121" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H121" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I121" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7343,25 +7340,25 @@
         <v>128</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E122" s="2">
-        <v>44842</v>
+        <v>44894</v>
       </c>
       <c r="F122" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G122" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H122" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I122" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7375,22 +7372,22 @@
         <v>211</v>
       </c>
       <c r="E123" s="2">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="F123" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G123" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H123" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I123" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7404,22 +7401,22 @@
         <v>212</v>
       </c>
       <c r="E124" s="2">
-        <v>44915</v>
+        <v>44927</v>
       </c>
       <c r="F124" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G124" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H124" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I124" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7433,22 +7430,22 @@
         <v>213</v>
       </c>
       <c r="E125" s="2">
-        <v>44927</v>
+        <v>44951</v>
       </c>
       <c r="F125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G125" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H125" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I125" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7462,22 +7459,22 @@
         <v>214</v>
       </c>
       <c r="E126" s="2">
-        <v>44951</v>
+        <v>44953</v>
       </c>
       <c r="F126" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G126" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H126" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I126" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7487,26 +7484,23 @@
       <c r="C127" t="s">
         <v>133</v>
       </c>
-      <c r="D127" t="s">
-        <v>215</v>
-      </c>
       <c r="E127" s="2">
-        <v>44953</v>
+        <v>44961</v>
       </c>
       <c r="F127" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G127" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I127" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7517,22 +7511,22 @@
         <v>134</v>
       </c>
       <c r="E128" s="2">
-        <v>44961</v>
+        <v>44984</v>
       </c>
       <c r="F128" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="G128" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H128" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I128" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7542,23 +7536,26 @@
       <c r="C129" t="s">
         <v>135</v>
       </c>
+      <c r="D129" t="s">
+        <v>215</v>
+      </c>
       <c r="E129" s="2">
-        <v>44984</v>
+        <v>45022</v>
       </c>
       <c r="F129" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="G129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H129" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I129" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7572,22 +7569,22 @@
         <v>216</v>
       </c>
       <c r="E130" s="2">
-        <v>45022</v>
+        <v>45034</v>
       </c>
       <c r="F130" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G130" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H130" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I130" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7597,26 +7594,23 @@
       <c r="C131" t="s">
         <v>137</v>
       </c>
-      <c r="D131" t="s">
-        <v>217</v>
-      </c>
       <c r="E131" s="2">
-        <v>45034</v>
+        <v>45064</v>
       </c>
       <c r="F131" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G131" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H131" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I131" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7627,22 +7621,22 @@
         <v>138</v>
       </c>
       <c r="E132" s="2">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="F132" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G132" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I132" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7652,23 +7646,26 @@
       <c r="C133" t="s">
         <v>139</v>
       </c>
+      <c r="D133" t="s">
+        <v>215</v>
+      </c>
       <c r="E133" s="2">
         <v>45069</v>
       </c>
       <c r="F133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G133" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I133" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7678,26 +7675,23 @@
       <c r="C134" t="s">
         <v>140</v>
       </c>
-      <c r="D134" t="s">
-        <v>216</v>
-      </c>
       <c r="E134" s="2">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="F134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G134" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H134" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I134" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7707,23 +7701,26 @@
       <c r="C135" t="s">
         <v>141</v>
       </c>
+      <c r="D135" t="s">
+        <v>211</v>
+      </c>
       <c r="E135" s="2">
-        <v>45070</v>
+        <v>45072</v>
       </c>
       <c r="F135" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G135" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I135" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7733,26 +7730,23 @@
       <c r="C136" t="s">
         <v>142</v>
       </c>
-      <c r="D136" t="s">
-        <v>212</v>
-      </c>
       <c r="E136" s="2">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="F136" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G136" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H136" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I136" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7763,45 +7757,19 @@
         <v>143</v>
       </c>
       <c r="E137" s="2">
-        <v>45073</v>
+        <v>45075</v>
       </c>
       <c r="F137" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="G137" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H137" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I137" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>144</v>
-      </c>
-      <c r="E138" s="2">
-        <v>45075</v>
-      </c>
-      <c r="F138" t="s">
-        <v>295</v>
-      </c>
-      <c r="G138" t="s">
-        <v>348</v>
-      </c>
-      <c r="H138" t="s">
-        <v>494</v>
-      </c>
-      <c r="I138" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/arxiv_paper_df_with_abstract.xlsx
+++ b/arxiv_paper_df_with_abstract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1BE72-94DD-4604-AD9D-75950F9344EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFCAE9-505D-4B05-BABA-C0CFF91F1F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3946,11 +3946,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="56.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -5579,7 +5582,7 @@
         <v>273</v>
       </c>
       <c r="G59" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H59" t="s">
         <v>413</v>
